--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1221.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1221.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.60742630853302</v>
+        <v>1.195984482765198</v>
       </c>
       <c r="B1">
-        <v>3.492557068421219</v>
+        <v>2.105360269546509</v>
       </c>
       <c r="C1">
-        <v>2.923974283225044</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.976008270429761</v>
+        <v>2.142131805419922</v>
       </c>
       <c r="E1">
-        <v>1.218168924986682</v>
+        <v>1.212249875068665</v>
       </c>
     </row>
   </sheetData>
